--- a/inputs/PHL/PHL_PSA_compiled.xlsx
+++ b/inputs/PHL/PHL_PSA_compiled.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="320" windowWidth="25040" windowHeight="14420"/>
+    <workbookView xWindow="480" yWindow="320" windowWidth="28320" windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1845,10 +1845,10 @@
   <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
